--- a/projects/03-Gaming-Capital-Budgeting-Case/Gaming Captial Budget Case.xlsx
+++ b/projects/03-Gaming-Capital-Budgeting-Case/Gaming Captial Budget Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19176\Desktop\BUS 356 Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D94C679-487D-4E51-BC1F-B472F6F8A047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7379D7-7F9C-44DC-A2E7-42A200F3D6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9550" yWindow="-21710" windowWidth="38620" windowHeight="21100" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exe Sum &amp; Dashboard" sheetId="17" r:id="rId1"/>
@@ -15744,15 +15744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>737755</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>184032</xdr:rowOff>
+      <xdr:colOff>105179</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>140855</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>523355</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15767,8 +15767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="737755" y="355482"/>
-          <a:ext cx="7575550" cy="19266018"/>
+          <a:off x="105179" y="358485"/>
+          <a:ext cx="8419176" cy="17075152"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15823,25 +15823,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>To: CFO</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
             <a:t>Subject: Capital Budget</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>From: Team 6, MJ Sanacore, Neoma Khan, Terrence Ho, Christina Alex</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16270,8 +16252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="39405137" y="573193"/>
-          <a:ext cx="2435860" cy="2828290"/>
+          <a:off x="38845490" y="581025"/>
+          <a:ext cx="2400300" cy="2907665"/>
           <a:chOff x="27100530" y="480060"/>
           <a:chExt cx="2407920" cy="3672840"/>
         </a:xfrm>
@@ -16493,8 +16475,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="39431807" y="8915400"/>
-          <a:ext cx="2642362" cy="3287607"/>
+          <a:off x="38868350" y="9169400"/>
+          <a:ext cx="2610612" cy="3390900"/>
           <a:chOff x="39543990" y="9029700"/>
           <a:chExt cx="2648712" cy="3329940"/>
         </a:xfrm>
@@ -17319,8 +17301,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26588720" y="4758690"/>
-              <a:ext cx="11720195" cy="4684395"/>
+              <a:off x="26545540" y="4822190"/>
+              <a:ext cx="11697335" cy="4749165"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19223,618 +19205,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C7F9AC2-4C3B-499A-9F8D-46D85E6E773B}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
-  <location ref="F52:G58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="6"/>
-        <item x="4"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <chartFormats count="19">
-    <chartFormat chart="6" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABCC74AB-057C-44E8-B261-A5E2069FBCAB}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
-  <location ref="T16:Y24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Sum of Family Games Software Company" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of RPG Games Software Company" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Craft Games Software Company" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Action Games Software Company" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Starting a New Game Software Company" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="49">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63CFCF84-8ED4-4EA4-B7B1-168AFDB31DD1}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
-  <location ref="T7:W13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sales Revenue " fld="2" baseField="1" baseItem="0" numFmtId="164"/>
-    <dataField name=" Gross Profits " fld="4" baseField="1" baseItem="0" numFmtId="164"/>
-    <dataField name="EBIT" fld="6" baseField="1" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="55">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C2660BA-ED07-4F8D-8149-764C02A3AC32}" name="PivotTable17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="15">
   <location ref="F66:H70" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -20261,7 +19631,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E96CB45-857E-4F5E-953C-4D9FEF0F8C17}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="J52:K62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
@@ -20349,6 +19719,618 @@
   <dataFields count="1">
     <dataField name="Sum of DCF" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C7F9AC2-4C3B-499A-9F8D-46D85E6E773B}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
+  <location ref="F52:G58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="6"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="19">
+    <chartFormat chart="6" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABCC74AB-057C-44E8-B261-A5E2069FBCAB}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="T16:Y24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of Family Games Software Company" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of RPG Games Software Company" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Craft Games Software Company" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Action Games Software Company" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Starting a New Game Software Company" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="49">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63CFCF84-8ED4-4EA4-B7B1-168AFDB31DD1}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="T7:W13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sales Revenue " fld="2" baseField="1" baseItem="0" numFmtId="164"/>
+    <dataField name=" Gross Profits " fld="4" baseField="1" baseItem="0" numFmtId="164"/>
+    <dataField name="EBIT" fld="6" baseField="1" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="55">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -21131,8 +21113,8 @@
   </sheetPr>
   <dimension ref="M2:BA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="36" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="BC77" sqref="BC77"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="AD104" sqref="AD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
